--- a/example/hero.xlsx
+++ b/example/hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="16608" windowHeight="9432"/>
   </bookViews>
   <sheets>
     <sheet name="commondata" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>名字</t>
   </si>
@@ -48,18 +48,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>csu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>changsha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guangzhou</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,18 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨岳军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中南大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[number]1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,6 +90,34 @@
   </si>
   <si>
     <t>[number]5</t>
+  </si>
+  <si>
+    <t>家里蹲大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马栏山大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jialidun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>malanshan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小奶牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -455,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -480,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -501,24 +509,24 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>29</v>
@@ -533,16 +541,16 @@
         <v>333444</v>
       </c>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -556,7 +564,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>31</v>
@@ -568,10 +576,10 @@
         <v>2231</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3">
         <v>34</v>
@@ -588,7 +596,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -600,10 +608,16 @@
         <v>2231</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
       </c>
       <c r="J4">
         <v>34</v>
